--- a/openxlsx/ds.xlsx
+++ b/openxlsx/ds.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9E65DC-D6DD-E043-9FB2-95A094E17167}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF6A697-E7D6-5345-98B7-8372379653A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="20540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data1" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="51">
   <si>
     <t>中国</t>
     <rPh sb="0" eb="2">
@@ -195,20 +195,68 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TESTX</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>TESTY</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comedy</t>
+  </si>
+  <si>
+    <t>Action</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Horror</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-1-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-1-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-1-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-2-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-2-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-2-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-2-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fantasy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-3-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-3-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Anime
+Cartoons</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -261,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -271,6 +319,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -640,11 +691,11 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(70,150)</f>
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="D2">
         <f ca="1">C2*RANDBETWEEN(10,13)</f>
-        <v>1032</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -656,11 +707,11 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C16" ca="1" si="0">RANDBETWEEN(70,150)</f>
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D16" ca="1" si="1">C3*RANDBETWEEN(10,13)</f>
-        <v>1562</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -672,11 +723,11 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>1276</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -688,11 +739,11 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>1150</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -704,11 +755,11 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>1209</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -720,11 +771,11 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>1512</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -736,11 +787,11 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>1032</v>
+        <v>972</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -752,11 +803,11 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>1155</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -768,11 +819,11 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>1040</v>
+        <v>760</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -784,11 +835,11 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>1116</v>
+        <v>935</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -800,11 +851,11 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>1210</v>
+        <v>960</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -816,11 +867,11 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>1050</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -832,11 +883,11 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>830</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -848,11 +899,11 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>1859</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -864,11 +915,11 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>980</v>
+        <v>1606</v>
       </c>
     </row>
   </sheetData>
@@ -923,11 +974,11 @@
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(70,150)</f>
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="E2">
         <f ca="1">D2*RANDBETWEEN(10,13)</f>
-        <v>1232</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -942,11 +993,11 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D24" ca="1" si="0">RANDBETWEEN(70,150)</f>
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E16" ca="1" si="1">D3*RANDBETWEEN(10,13)</f>
-        <v>1118</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -961,11 +1012,11 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>740</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -980,11 +1031,11 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>792</v>
+        <v>949</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -999,11 +1050,11 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>1755</v>
+        <v>949</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1018,11 +1069,11 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>1313</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1037,11 +1088,11 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>970</v>
+        <v>891</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1056,11 +1107,11 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>1056</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1075,11 +1126,11 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>1080</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1094,11 +1145,11 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>1068</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1113,11 +1164,11 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="1"/>
-        <v>1290</v>
+        <v>880</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1132,11 +1183,11 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>890</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1151,11 +1202,11 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>1155</v>
+        <v>900</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1170,11 +1221,11 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
-        <v>1023</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1189,11 +1240,11 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>1898</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1208,11 +1259,11 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="E17">
         <f t="shared" ref="E17:E20" ca="1" si="2">D17*RANDBETWEEN(10,13)</f>
-        <v>814</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1227,11 +1278,11 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="2"/>
-        <v>825</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1246,11 +1297,11 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="2"/>
-        <v>1677</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1265,11 +1316,11 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
-        <v>1560</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1284,11 +1335,11 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E21">
         <f t="shared" ref="E21:E24" ca="1" si="3">D21*RANDBETWEEN(10,13)</f>
-        <v>1270</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1303,11 +1354,11 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="3"/>
-        <v>1375</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1322,11 +1373,11 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="3"/>
-        <v>960</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1341,11 +1392,11 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="3"/>
-        <v>1521</v>
+        <v>1235</v>
       </c>
     </row>
   </sheetData>
@@ -1394,23 +1445,23 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(70,150)</f>
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:F20" ca="1" si="0">RANDBETWEEN(70,150)</f>
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>134</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1419,23 +1470,23 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B18" ca="1" si="1">RANDBETWEEN(70,150)</f>
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1444,23 +1495,23 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>132</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1469,23 +1520,23 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1494,23 +1545,23 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1519,23 +1570,23 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1544,23 +1595,23 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1569,23 +1620,23 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>148</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1594,23 +1645,23 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1619,23 +1670,23 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
         <v>88</v>
       </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="0"/>
-        <v>85</v>
-      </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1644,23 +1695,23 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>148</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1669,23 +1720,23 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1694,23 +1745,23 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1719,23 +1770,23 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1744,23 +1795,23 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1769,23 +1820,23 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
         <v>83</v>
       </c>
-      <c r="D17">
-        <f t="shared" ca="1" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="0"/>
-        <v>109</v>
-      </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>139</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1794,23 +1845,23 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="0"/>
         <v>121</v>
-      </c>
-      <c r="D18">
-        <f t="shared" ca="1" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ca="1" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="F18">
-        <f t="shared" ca="1" si="0"/>
-        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1819,23 +1870,23 @@
       </c>
       <c r="B19">
         <f t="shared" ref="B19:B20" ca="1" si="2">RANDBETWEEN(70,150)</f>
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>124</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1844,23 +1895,23 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1872,10 +1923,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652223B6-DF69-AB43-9420-BC5EC21402F3}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -1901,10 +1952,10 @@
         <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1996,7 +2047,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>32</v>
@@ -2016,12 +2067,152 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30">
+      <c r="A14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14">
         <v>900</v>
       </c>
     </row>
